--- a/biology/Botanique/Frederik_Meijer_Gardens_and_Sculpture_Park/Frederik_Meijer_Gardens_and_Sculpture_Park.xlsx
+++ b/biology/Botanique/Frederik_Meijer_Gardens_and_Sculpture_Park/Frederik_Meijer_Gardens_and_Sculpture_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Frederik Meijer Gardens and Sculpture Park est un terrain d'environ 50 ha, comprenant un jardin botanique et un parc de sculptures situé au Grand Rapids dans le Michigan aux États-Unis, souvent appelé le Meijer Gardens, un des plus importants événements culturels du Midwest américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Meijer Gardens fut ouvert au public en 1995 grâce à un don de Frederik et Lena Meijer (Meijer), qui offrirent le soutien financier, les terrains et leur collection complète de sculptures à l'organisation. 
 Le caractère typique de parc et jardin où la nature et l'art forment un ensemble, convient parfaitement à l'objectif de Meijer Gardens.
@@ -543,7 +557,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Meijer Gardens offre plusieurs possibilités au visiteur, notamment : 
 Le Lena Meijer Conservatory composé d'une serre tropicale, une serre exotique, une serre asiatique, une serre désertique et une serre Victorienne.
@@ -591,7 +607,9 @@
           <t>Le parc de sculptures</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Meijer Gardens comprend un vaste parc de sculptures depuis 2002 présentant plus de 170 œuvres de sculpteurs de renommée comme :
 Magdalena Abakanowicz
